--- a/旧データー/平成２５年A/金杉夏祭り素材、飲み物類101～200.xlsx
+++ b/旧データー/平成２５年A/金杉夏祭り素材、飲み物類101～200.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="105" windowWidth="19320" windowHeight="7845" tabRatio="826"/>
@@ -32,8 +32,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,7 +118,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -134,25 +134,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -226,7 +218,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -261,7 +252,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -437,12 +427,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="51.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="51.75"/>
   <cols>
     <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
     <col min="2" max="2" width="35.625" style="2" customWidth="1"/>
@@ -466,8 +458,8 @@
     <col min="20" max="20" width="35.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5">
+    <row r="1" spans="1:20" ht="87" customHeight="1" thickBot="1">
+      <c r="A1" s="3">
         <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -528,7 +520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="87" customHeight="1" thickBot="1">
       <c r="A2" s="3">
         <v>102</v>
       </c>
@@ -590,7 +582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="87" customHeight="1" thickBot="1">
       <c r="A3" s="3">
         <v>103</v>
       </c>
@@ -652,7 +644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="87" customHeight="1" thickBot="1">
       <c r="A4" s="3">
         <v>104</v>
       </c>
@@ -714,7 +706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="87" customHeight="1" thickBot="1">
       <c r="A5" s="3">
         <v>105</v>
       </c>
@@ -776,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="87" customHeight="1" thickBot="1">
       <c r="A6" s="3">
         <v>106</v>
       </c>
@@ -838,7 +830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="87" customHeight="1" thickBot="1">
       <c r="A7" s="3">
         <v>107</v>
       </c>
@@ -900,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="87" customHeight="1" thickBot="1">
       <c r="A8" s="3">
         <v>108</v>
       </c>
@@ -962,7 +954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="87" customHeight="1" thickBot="1">
       <c r="A9" s="3">
         <v>109</v>
       </c>
@@ -1024,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="87" customHeight="1" thickBot="1">
       <c r="A10" s="3">
         <v>110</v>
       </c>
